--- a/caches/geolocations.xlsx
+++ b/caches/geolocations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1282">
   <si>
     <t xml:space="preserve">209 Fisherville Road,Concord,03301</t>
   </si>
@@ -3839,6 +3839,33 @@
   </si>
   <si>
     <t>551 Pine River Pond Road,Sanbornville,03872</t>
+  </si>
+  <si>
+    <t>1600 Woodbury Ave.,Portsmouth,03801</t>
+  </si>
+  <si>
+    <t>80 Barnes Road,North Conway,03860</t>
+  </si>
+  <si>
+    <t>92 Farmington Road,Rochester,03867</t>
+  </si>
+  <si>
+    <t>49 Amoskeag Street,Manchester,03102</t>
+  </si>
+  <si>
+    <t>15 Dartmouth Drive,Auburn,03032</t>
+  </si>
+  <si>
+    <t>60 D'Amante Drive,Concord,03301</t>
+  </si>
+  <si>
+    <t>1279 Hooksett Road,Hooksett,03106</t>
+  </si>
+  <si>
+    <t>20 South Main Street,Concord,03301</t>
+  </si>
+  <si>
+    <t>563 Route 106 North Unit4,Loudon,03307</t>
   </si>
 </sst>
 </file>
@@ -18295,6 +18322,108 @@
         <v>-71.0437582</v>
       </c>
     </row>
+    <row r="1265">
+      <c r="A1265" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1265">
+        <v>43.089011</v>
+      </c>
+      <c r="C1265">
+        <v>-70.79229819999999</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B1266">
+        <v>44.025896</v>
+      </c>
+      <c r="C1266">
+        <v>-71.114288</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B1267">
+        <v>43.3320722</v>
+      </c>
+      <c r="C1267">
+        <v>-71.0098146</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1268">
+        <v>43.0047946</v>
+      </c>
+      <c r="C1268">
+        <v>-71.4730697</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1269">
+        <v>43.0110977</v>
+      </c>
+      <c r="C1269">
+        <v>-71.389059</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B1270">
+        <v>43.2205627</v>
+      </c>
+      <c r="C1270">
+        <v>-71.486426</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B1271">
+        <v>43.050158</v>
+      </c>
+      <c r="C1271">
+        <v>-71.43647560000001</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1272">
+        <v>43.2034366</v>
+      </c>
+      <c r="C1272">
+        <v>-71.53579959999999</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1273">
+        <v>43.3252388</v>
+      </c>
+      <c r="C1273">
+        <v>-71.4786416</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLinesSet="true"/>
   <pageMargins bottom="0.75" footer="0.511811023622047" header="0.511811023622047" left="0.7" right="0.7" top="0.75"/>

--- a/caches/geolocations.xlsx
+++ b/caches/geolocations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="1320">
   <si>
     <t xml:space="preserve">209 Fisherville Road,Concord,03301</t>
   </si>
@@ -3866,6 +3866,120 @@
   </si>
   <si>
     <t>563 Route 106 North Unit4,Loudon,03307</t>
+  </si>
+  <si>
+    <t>1475 Lafayette Road,Portsmouth,03801</t>
+  </si>
+  <si>
+    <t>216 Route 108,Somersworth,03820</t>
+  </si>
+  <si>
+    <t>76 Main Street,Errol,03579</t>
+  </si>
+  <si>
+    <t>278 Meadow Street,Littleton,03561</t>
+  </si>
+  <si>
+    <t>804 Meadow Street,Littleton,03561</t>
+  </si>
+  <si>
+    <t>239 Central Street,Franklin,03235</t>
+  </si>
+  <si>
+    <t>21 Main Street,Plymouth,03264</t>
+  </si>
+  <si>
+    <t>1525 South Willow Street,Manchester,03103</t>
+  </si>
+  <si>
+    <t>50 Dow Street,Manchester,03101</t>
+  </si>
+  <si>
+    <t>866 Elm Street,Manchester,03101</t>
+  </si>
+  <si>
+    <t>1097 Elm Street,Manchester,03101</t>
+  </si>
+  <si>
+    <t>34 Emerson Road,Milford,03055</t>
+  </si>
+  <si>
+    <t>195 Main Street,New London,03257</t>
+  </si>
+  <si>
+    <t>216 South River Rd,Bedford,03110</t>
+  </si>
+  <si>
+    <t>71 Main St,Sunapee,03782</t>
+  </si>
+  <si>
+    <t>126 W Main St,Hillsboro,03244</t>
+  </si>
+  <si>
+    <t>125 South River Road,Bedford,03110</t>
+  </si>
+  <si>
+    <t>133 Plaistow Road,Plaistow,03865</t>
+  </si>
+  <si>
+    <t>142 Nashua Street,Milford,03055</t>
+  </si>
+  <si>
+    <t>162 Main St,Keene,03431</t>
+  </si>
+  <si>
+    <t>452 Amherst Street,Nashua,03060</t>
+  </si>
+  <si>
+    <t>40 Nashua Street,Milford,03055</t>
+  </si>
+  <si>
+    <t>85 South Main Street,Newton,03858</t>
+  </si>
+  <si>
+    <t>707 Milford Road #10a,Merrimack,03054</t>
+  </si>
+  <si>
+    <t>87 Lowell Road,Hudson,03051</t>
+  </si>
+  <si>
+    <t>270 West Hollis Street,Nashua,03060</t>
+  </si>
+  <si>
+    <t>140 Route 9,Sullivan,03445</t>
+  </si>
+  <si>
+    <t>401 Main Street,Salem,03079</t>
+  </si>
+  <si>
+    <t>443 Winchester Street,Keene,03431</t>
+  </si>
+  <si>
+    <t>382 South Broadway,Salem,03079</t>
+  </si>
+  <si>
+    <t>583 Nashua St,Milford,03055</t>
+  </si>
+  <si>
+    <t>60 Henniker St,Hillsborough,03244</t>
+  </si>
+  <si>
+    <t>55 Pleasant St,Claremont,03743</t>
+  </si>
+  <si>
+    <t>336 Washington Street,Claremont,03743</t>
+  </si>
+  <si>
+    <t>22 East Broadway,Derry,03038</t>
+  </si>
+  <si>
+    <t>3 Main Street,Henniker,03242</t>
+  </si>
+  <si>
+    <t>58 Main St,Newport,03773</t>
+  </si>
+  <si>
+    <t>8 Glen Road,West Lebanon,03784</t>
   </si>
 </sst>
 </file>
@@ -18424,6 +18538,430 @@
         <v>-71.4786416</v>
       </c>
     </row>
+    <row r="1274">
+      <c r="A1274" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1274">
+        <v>43.0447332</v>
+      </c>
+      <c r="C1274">
+        <v>-70.7724145</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1275">
+        <v>43.2450564</v>
+      </c>
+      <c r="C1275">
+        <v>-70.89960280000001</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1276">
+        <v>44.7800437</v>
+      </c>
+      <c r="C1276">
+        <v>-71.135425</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1277">
+        <v>44.3089482</v>
+      </c>
+      <c r="C1277">
+        <v>-71.79198920000002</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1278">
+        <v>44.3003429</v>
+      </c>
+      <c r="C1278">
+        <v>-71.8054859</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1279">
+        <v>43.4437148</v>
+      </c>
+      <c r="C1279">
+        <v>-71.6485163</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1280">
+        <v>43.7540191</v>
+      </c>
+      <c r="C1280">
+        <v>-71.6876163</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1281">
+        <v>42.9538933</v>
+      </c>
+      <c r="C1281">
+        <v>-71.43806719999999</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1282">
+        <v>42.997184</v>
+      </c>
+      <c r="C1282">
+        <v>-71.46527259999999</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1283">
+        <v>42.990274</v>
+      </c>
+      <c r="C1283">
+        <v>-71.4633059</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1284">
+        <v>42.9937839</v>
+      </c>
+      <c r="C1284">
+        <v>-71.462746</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B1285">
+        <v>42.8140129</v>
+      </c>
+      <c r="C1285">
+        <v>-71.63433119999999</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B1286">
+        <v>43.4167695</v>
+      </c>
+      <c r="C1286">
+        <v>-71.98798959999999</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1287">
+        <v>42.9423992</v>
+      </c>
+      <c r="C1287">
+        <v>-71.474321</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1288">
+        <v>43.3859439</v>
+      </c>
+      <c r="C1288">
+        <v>-72.0812888</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B1289">
+        <v>43.1095361</v>
+      </c>
+      <c r="C1289">
+        <v>-71.90258</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1290">
+        <v>42.9531632</v>
+      </c>
+      <c r="C1290">
+        <v>-71.476803</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1291">
+        <v>42.8452144</v>
+      </c>
+      <c r="C1291">
+        <v>-71.1059052</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1292">
+        <v>42.8354339</v>
+      </c>
+      <c r="C1292">
+        <v>-71.6463081</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1293">
+        <v>42.9300441</v>
+      </c>
+      <c r="C1293">
+        <v>-72.2773665</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1294">
+        <v>42.7895528</v>
+      </c>
+      <c r="C1294">
+        <v>-71.517411</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1295">
+        <v>42.8383005</v>
+      </c>
+      <c r="C1295">
+        <v>-71.6587134</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1296">
+        <v>42.8551537</v>
+      </c>
+      <c r="C1296">
+        <v>-71.0447625</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B1297">
+        <v>42.8051641</v>
+      </c>
+      <c r="C1297">
+        <v>-71.5445759</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B1298">
+        <v>42.75315790000001</v>
+      </c>
+      <c r="C1298">
+        <v>-71.4294262</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1299">
+        <v>42.7511888</v>
+      </c>
+      <c r="C1299">
+        <v>-71.4841398</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1300">
+        <v>42.9929244</v>
+      </c>
+      <c r="C1300">
+        <v>-72.1944283</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1301">
+        <v>42.792558</v>
+      </c>
+      <c r="C1301">
+        <v>-71.18466599999999</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1302">
+        <v>42.918269</v>
+      </c>
+      <c r="C1302">
+        <v>-72.2930475</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1303">
+        <v>42.750483</v>
+      </c>
+      <c r="C1303">
+        <v>-71.2059326</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1304">
+        <v>42.8234388</v>
+      </c>
+      <c r="C1304">
+        <v>-71.6234613</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B1305">
+        <v>43.1173571</v>
+      </c>
+      <c r="C1305">
+        <v>-71.89150339999999</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1306">
+        <v>43.3714836</v>
+      </c>
+      <c r="C1306">
+        <v>-72.3389953</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1307">
+        <v>43.36536299999999</v>
+      </c>
+      <c r="C1307">
+        <v>-72.31881</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1308">
+        <v>42.881794</v>
+      </c>
+      <c r="C1308">
+        <v>-71.3252959</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1309">
+        <v>43.1798898</v>
+      </c>
+      <c r="C1309">
+        <v>-71.8222263</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1310">
+        <v>43.3635104</v>
+      </c>
+      <c r="C1310">
+        <v>-72.17213319999999</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1311">
+        <v>43.6337895</v>
+      </c>
+      <c r="C1311">
+        <v>-72.3154045</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLinesSet="true"/>
   <pageMargins bottom="0.75" footer="0.511811023622047" header="0.511811023622047" left="0.7" right="0.7" top="0.75"/>
